--- a/project3/result.xlsx
+++ b/project3/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F8FA6-C008-46BE-B813-210BE020191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AB65E-AC51-45AE-ABBF-BC2E8D2845E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3B952E92-63A9-40E2-BEA1-B7A7FB5BCACC}"/>
   </bookViews>
@@ -5571,7 +5571,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$57</c15:sqref>
@@ -5612,7 +5612,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -5684,7 +5684,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$58:$C$76</c15:sqref>
@@ -5755,7 +5755,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E662-4060-AE3E-81559501DF6B}"/>
                   </c:ext>
@@ -5768,7 +5768,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$57</c15:sqref>
@@ -5809,7 +5809,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -5881,7 +5881,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$58:$E$76</c15:sqref>
@@ -5952,7 +5952,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E662-4060-AE3E-81559501DF6B}"/>
                   </c:ext>
@@ -5965,7 +5965,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$57</c15:sqref>
@@ -6012,7 +6012,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -6084,7 +6084,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$58:$G$76</c15:sqref>
@@ -6155,7 +6155,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E662-4060-AE3E-81559501DF6B}"/>
                   </c:ext>
@@ -6168,7 +6168,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$57</c15:sqref>
@@ -6215,7 +6215,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -6287,7 +6287,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$58:$I$76</c15:sqref>
@@ -6358,7 +6358,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E662-4060-AE3E-81559501DF6B}"/>
                   </c:ext>
@@ -6710,17 +6710,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Injected Latency Measurements for Intel Memory Latency Checker (256 Bytes)</a:t>
+              <a:t>Correlation between Inject Delay and Bandwidth in Memory Systems (256 Bytes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -7707,7 +7701,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$57</c15:sqref>
@@ -7748,7 +7742,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -7820,7 +7814,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$58:$B$76</c15:sqref>
@@ -7891,7 +7885,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7D87-4966-8CD2-9CEDCD943007}"/>
                   </c:ext>
@@ -7904,7 +7898,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$57</c15:sqref>
@@ -7945,7 +7939,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -8017,7 +8011,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$58:$D$76</c15:sqref>
@@ -8088,7 +8082,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7D87-4966-8CD2-9CEDCD943007}"/>
                   </c:ext>
@@ -8101,7 +8095,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$57</c15:sqref>
@@ -8142,7 +8136,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -8214,7 +8208,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$58:$F$76</c15:sqref>
@@ -8285,7 +8279,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7D87-4966-8CD2-9CEDCD943007}"/>
                   </c:ext>
@@ -8298,7 +8292,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$57</c15:sqref>
@@ -8345,7 +8339,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$58:$A$76</c15:sqref>
@@ -8417,7 +8411,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$58:$H$76</c15:sqref>
@@ -8488,7 +8482,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7D87-4966-8CD2-9CEDCD943007}"/>
                   </c:ext>
@@ -11426,8 +11420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0A55C5-60B0-4BAA-A6E1-9623D445A294}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y41" activeCellId="1" sqref="X14 Y41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z71" sqref="Z71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
